--- a/biology/Mycologie/Tremella_aurantia/Tremella_aurantia.xlsx
+++ b/biology/Mycologie/Tremella_aurantia/Tremella_aurantia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tremella aurantia est une espèce de champignons (Fungi) basidiomycètes de la famille des Tremellaceae[1]. C'est un mycoparasite de la Stérée hirsute, une espèce de champignons agaricomycètes.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tremella aurantia est une espèce de champignons (Fungi) basidiomycètes de la famille des Tremellaceae. C'est un mycoparasite de la Stérée hirsute, une espèce de champignons agaricomycètes.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tremella vient du latin tremere, « trembler », et du suffixe -ella, « petit », en référence au comportement de cette masse gélatineuse. L'épithète spécifique aurantia, « doré », fait allusion à sa couleur[2].
-Le champignon porte le nom vernaculaire de Trémelle orangée ou d'oreille d'or[3].
-Elle se confond fréquemment avec la Trémelle mésentérique et appartient aux mycètes communément appelés « champignons gelées », parmi lesquels on retrouve l'Oreille de Judas[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tremella vient du latin tremere, « trembler », et du suffixe -ella, « petit », en référence au comportement de cette masse gélatineuse. L'épithète spécifique aurantia, « doré », fait allusion à sa couleur.
+Le champignon porte le nom vernaculaire de Trémelle orangée ou d'oreille d'or.
+Elle se confond fréquemment avec la Trémelle mésentérique et appartient aux mycètes communément appelés « champignons gelées », parmi lesquels on retrouve l'Oreille de Judas.
 </t>
         </is>
       </c>
